--- a/biology/Botanique/Borrichia_arborescens/Borrichia_arborescens.xlsx
+++ b/biology/Botanique/Borrichia_arborescens/Borrichia_arborescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Borrichia arborescens est une espèce de plantes à fleurs appartenant à la famille des Asteraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Borrichia glabrata (Kunth) Small
 Diomedea glabrata Kunth
@@ -549,7 +563,9 @@
           <t>Nom vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Floride : Sea ox-eye
 Espagnol : Clavelón de playa</t>
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dunes côtières en lisière de mangrove, des Antilles, Cuba, Bahamas et sud de la Floride. 
 </t>
@@ -611,7 +629,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Petit arbuste de 1.5 m de haut.
 Inflorescence petits capitules jaunes
@@ -643,10 +663,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Borrichia arborescens s'hybride avec Borrichia frutescens quand les deux espèces sont présentes. 
-Cet arbuste tolère les inondations occasionnelles par les eaux salées lors des tempêtes[1].
+Cet arbuste tolère les inondations occasionnelles par les eaux salées lors des tempêtes.
 </t>
         </is>
       </c>
